--- a/old_database/crypto/library/library_1601.xlsx
+++ b/old_database/crypto/library/library_1601.xlsx
@@ -46,7 +46,7 @@
     <t>06.07.16</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1601</t>
   </si>
   <si>
     <t>06.09.16</t>
